--- a/data/pca/factorExposure/factorExposure_2012-03-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-03-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.0142520100704475</v>
+        <v>0.01460923754634989</v>
       </c>
       <c r="C2">
-        <v>0.0315523378452965</v>
+        <v>0.02656463675356532</v>
       </c>
       <c r="D2">
-        <v>-0.0001959485827905135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.004631366022838266</v>
+      </c>
+      <c r="E2">
+        <v>-0.01041862457983876</v>
+      </c>
+      <c r="F2">
+        <v>-0.01154730311493435</v>
+      </c>
+      <c r="G2">
+        <v>0.01617165344267112</v>
+      </c>
+      <c r="H2">
+        <v>-0.05156574865984639</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07333749046720772</v>
+        <v>0.08760266778457708</v>
       </c>
       <c r="C4">
-        <v>0.05196582808052724</v>
+        <v>0.03753053314436737</v>
       </c>
       <c r="D4">
-        <v>0.08190924747466695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06564724340033988</v>
+      </c>
+      <c r="E4">
+        <v>-0.01449781105814073</v>
+      </c>
+      <c r="F4">
+        <v>-0.03106843005181264</v>
+      </c>
+      <c r="G4">
+        <v>0.002935543050510197</v>
+      </c>
+      <c r="H4">
+        <v>0.04183885837240019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1076566044377407</v>
+        <v>0.119540056746399</v>
       </c>
       <c r="C6">
-        <v>0.05539600632400193</v>
+        <v>0.03455215905600661</v>
       </c>
       <c r="D6">
-        <v>-0.004368324869573201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01123943881597043</v>
+      </c>
+      <c r="E6">
+        <v>0.005772471689932044</v>
+      </c>
+      <c r="F6">
+        <v>-0.05368570769849706</v>
+      </c>
+      <c r="G6">
+        <v>0.03436192895952425</v>
+      </c>
+      <c r="H6">
+        <v>-0.1096383083819566</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.04969038730250047</v>
+        <v>0.06401885177334005</v>
       </c>
       <c r="C7">
-        <v>0.0293714434267852</v>
+        <v>0.02081978337217228</v>
       </c>
       <c r="D7">
-        <v>0.04470151278516426</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04518102760994718</v>
+      </c>
+      <c r="E7">
+        <v>-0.03553851871107756</v>
+      </c>
+      <c r="F7">
+        <v>-0.036742993014726</v>
+      </c>
+      <c r="G7">
+        <v>-0.03553014299553073</v>
+      </c>
+      <c r="H7">
+        <v>0.004520739767180315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03765739318107488</v>
+        <v>0.04038177865297891</v>
       </c>
       <c r="C8">
-        <v>0.01156677882691142</v>
+        <v>0.006635487803650547</v>
       </c>
       <c r="D8">
-        <v>0.05232303489364211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02130947619779666</v>
+      </c>
+      <c r="E8">
+        <v>-0.0346862601379925</v>
+      </c>
+      <c r="F8">
+        <v>-0.05064006738825338</v>
+      </c>
+      <c r="G8">
+        <v>0.05734170149763101</v>
+      </c>
+      <c r="H8">
+        <v>-0.006206211425305337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06677210250231379</v>
+        <v>0.07862694620970047</v>
       </c>
       <c r="C9">
-        <v>0.04219368320630724</v>
+        <v>0.02797012229330382</v>
       </c>
       <c r="D9">
-        <v>0.07081679502224028</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06344331414593239</v>
+      </c>
+      <c r="E9">
+        <v>-0.03715122943199123</v>
+      </c>
+      <c r="F9">
+        <v>-0.03283431591828381</v>
+      </c>
+      <c r="G9">
+        <v>0.008472510116020945</v>
+      </c>
+      <c r="H9">
+        <v>0.04564201732693564</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02948908941090621</v>
+        <v>0.03486217941264692</v>
       </c>
       <c r="C10">
-        <v>0.03334395458972814</v>
+        <v>0.0431847477002725</v>
       </c>
       <c r="D10">
-        <v>-0.1813986844511795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.174613944041772</v>
+      </c>
+      <c r="E10">
+        <v>-0.04557272276237611</v>
+      </c>
+      <c r="F10">
+        <v>-0.04869728627950438</v>
+      </c>
+      <c r="G10">
+        <v>-0.02782408972382711</v>
+      </c>
+      <c r="H10">
+        <v>-0.04829888429303424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.06977983995552917</v>
+        <v>0.07590224019133568</v>
       </c>
       <c r="C11">
-        <v>0.04783325006386776</v>
+        <v>0.02801025933081114</v>
       </c>
       <c r="D11">
-        <v>0.05543962761938088</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06261275912326032</v>
+      </c>
+      <c r="E11">
+        <v>0.002851968190479555</v>
+      </c>
+      <c r="F11">
+        <v>-0.02812888298693746</v>
+      </c>
+      <c r="G11">
+        <v>-0.005610152926242662</v>
+      </c>
+      <c r="H11">
+        <v>0.08645067788757579</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05800585851059861</v>
+        <v>0.06711727247139374</v>
       </c>
       <c r="C12">
-        <v>0.05266234772385806</v>
+        <v>0.03738646603323924</v>
       </c>
       <c r="D12">
-        <v>0.04163598350934346</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04769786251160449</v>
+      </c>
+      <c r="E12">
+        <v>-0.01294329465645851</v>
+      </c>
+      <c r="F12">
+        <v>-0.02108338914956169</v>
+      </c>
+      <c r="G12">
+        <v>0.001333862214726889</v>
+      </c>
+      <c r="H12">
+        <v>0.04342226496982491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.0605584875007731</v>
+        <v>0.06543825192875488</v>
       </c>
       <c r="C13">
-        <v>0.04050701083821232</v>
+        <v>0.02526102343509277</v>
       </c>
       <c r="D13">
-        <v>0.05986241022942</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.04276293416314212</v>
+      </c>
+      <c r="E13">
+        <v>-0.01531049051410744</v>
+      </c>
+      <c r="F13">
+        <v>-0.0042199479425208</v>
+      </c>
+      <c r="G13">
+        <v>-0.01081601303823823</v>
+      </c>
+      <c r="H13">
+        <v>0.03925596298491089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03376713149067535</v>
+        <v>0.04117936745672805</v>
       </c>
       <c r="C14">
-        <v>0.03218187077418421</v>
+        <v>0.02769195322881146</v>
       </c>
       <c r="D14">
-        <v>-0.0002012105562898631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007059406848623025</v>
+      </c>
+      <c r="E14">
+        <v>-0.03301624986815557</v>
+      </c>
+      <c r="F14">
+        <v>-0.01252771474154134</v>
+      </c>
+      <c r="G14">
+        <v>0.003845404660320688</v>
+      </c>
+      <c r="H14">
+        <v>0.05819110670365681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03995408551425281</v>
+        <v>0.03943706392827845</v>
       </c>
       <c r="C15">
-        <v>0.01132626437963834</v>
+        <v>0.00315120094224274</v>
       </c>
       <c r="D15">
-        <v>0.01748925900204648</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.004456342239569023</v>
+      </c>
+      <c r="E15">
+        <v>-0.04171616781263508</v>
+      </c>
+      <c r="F15">
+        <v>0.005652514008317437</v>
+      </c>
+      <c r="G15">
+        <v>0.02525874411593531</v>
+      </c>
+      <c r="H15">
+        <v>0.03711874174713643</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06056007016455244</v>
+        <v>0.07010382982284635</v>
       </c>
       <c r="C16">
-        <v>0.04341663462466537</v>
+        <v>0.02851983325259404</v>
       </c>
       <c r="D16">
-        <v>0.04471927716775673</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06168778234865718</v>
+      </c>
+      <c r="E16">
+        <v>-0.005862596400059105</v>
+      </c>
+      <c r="F16">
+        <v>-0.02490574130270654</v>
+      </c>
+      <c r="G16">
+        <v>-0.004609220934149384</v>
+      </c>
+      <c r="H16">
+        <v>0.05284406110755353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06316688463772367</v>
+        <v>0.06327727985725884</v>
       </c>
       <c r="C20">
-        <v>0.03098127682018389</v>
+        <v>0.01329041470096661</v>
       </c>
       <c r="D20">
-        <v>0.05017141488388457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03919884239777593</v>
+      </c>
+      <c r="E20">
+        <v>-0.03275919077827856</v>
+      </c>
+      <c r="F20">
+        <v>-0.01938415261457778</v>
+      </c>
+      <c r="G20">
+        <v>0.01078033902202592</v>
+      </c>
+      <c r="H20">
+        <v>0.04349689572622443</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02359310925237541</v>
+        <v>0.02430320082778364</v>
       </c>
       <c r="C21">
-        <v>-0.002953920718049057</v>
+        <v>-0.01056352465937895</v>
       </c>
       <c r="D21">
-        <v>0.02394070970485912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02786625469482771</v>
+      </c>
+      <c r="E21">
+        <v>-0.04290329875549306</v>
+      </c>
+      <c r="F21">
+        <v>0.01239066365088834</v>
+      </c>
+      <c r="G21">
+        <v>0.009271636099035257</v>
+      </c>
+      <c r="H21">
+        <v>-0.04732752841541099</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07695810840121915</v>
+        <v>0.07233337346598763</v>
       </c>
       <c r="C22">
-        <v>0.06089601910707121</v>
+        <v>0.03919853250183763</v>
       </c>
       <c r="D22">
-        <v>0.1018868719860751</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07042206740945824</v>
+      </c>
+      <c r="E22">
+        <v>-0.572968109926226</v>
+      </c>
+      <c r="F22">
+        <v>0.2194359495308746</v>
+      </c>
+      <c r="G22">
+        <v>-0.06671580738739798</v>
+      </c>
+      <c r="H22">
+        <v>-0.1583003106640431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.07792603675014499</v>
+        <v>0.07296809754683838</v>
       </c>
       <c r="C23">
-        <v>0.05980580026885966</v>
+        <v>0.0378873067816529</v>
       </c>
       <c r="D23">
-        <v>0.1034807098406672</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.07126950938592146</v>
+      </c>
+      <c r="E23">
+        <v>-0.5723399449582699</v>
+      </c>
+      <c r="F23">
+        <v>0.2181028107949939</v>
+      </c>
+      <c r="G23">
+        <v>-0.06533751949515561</v>
+      </c>
+      <c r="H23">
+        <v>-0.1533534155728866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07087139803803252</v>
+        <v>0.07949450948909884</v>
       </c>
       <c r="C24">
-        <v>0.0521732781568548</v>
+        <v>0.03389591267356088</v>
       </c>
       <c r="D24">
-        <v>0.0573184860265224</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0601216827279561</v>
+      </c>
+      <c r="E24">
+        <v>-0.01552505352972782</v>
+      </c>
+      <c r="F24">
+        <v>-0.03526235973798209</v>
+      </c>
+      <c r="G24">
+        <v>0.01003322785278072</v>
+      </c>
+      <c r="H24">
+        <v>0.05761626064198992</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07072141355955536</v>
+        <v>0.07751100377055774</v>
       </c>
       <c r="C25">
-        <v>0.05725967061230988</v>
+        <v>0.03845084987865597</v>
       </c>
       <c r="D25">
-        <v>0.06488747622751326</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05265350823022488</v>
+      </c>
+      <c r="E25">
+        <v>-0.01977730281625797</v>
+      </c>
+      <c r="F25">
+        <v>-0.0248414831457991</v>
+      </c>
+      <c r="G25">
+        <v>0.0177455919071764</v>
+      </c>
+      <c r="H25">
+        <v>0.05881613788926959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04410749309031636</v>
+        <v>0.04684960472365535</v>
       </c>
       <c r="C26">
-        <v>0.01057111816001555</v>
+        <v>0.002649345368676902</v>
       </c>
       <c r="D26">
-        <v>0.01260990387747271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.0182888482521171</v>
+      </c>
+      <c r="E26">
+        <v>-0.05383840966344387</v>
+      </c>
+      <c r="F26">
+        <v>-0.02276472708156567</v>
+      </c>
+      <c r="G26">
+        <v>-0.008934597361730688</v>
+      </c>
+      <c r="H26">
+        <v>0.05237864615988264</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05189549642455771</v>
+        <v>0.06158848484009843</v>
       </c>
       <c r="C28">
-        <v>0.07465621291218462</v>
+        <v>0.08668187918821788</v>
       </c>
       <c r="D28">
-        <v>-0.3143790236856535</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3073464744502034</v>
+      </c>
+      <c r="E28">
+        <v>-0.02558995473166446</v>
+      </c>
+      <c r="F28">
+        <v>-0.05368623601241863</v>
+      </c>
+      <c r="G28">
+        <v>0.03386578784220059</v>
+      </c>
+      <c r="H28">
+        <v>-0.03955881144871733</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.03967974484682505</v>
+        <v>0.04793346717388978</v>
       </c>
       <c r="C29">
-        <v>0.03109713078237367</v>
+        <v>0.02594154567953581</v>
       </c>
       <c r="D29">
-        <v>0.003292749164733994</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006897989479024346</v>
+      </c>
+      <c r="E29">
+        <v>-0.05556521328275661</v>
+      </c>
+      <c r="F29">
+        <v>-0.001109734260778727</v>
+      </c>
+      <c r="G29">
+        <v>-0.01231208274203925</v>
+      </c>
+      <c r="H29">
+        <v>0.07900566449812652</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.126124251965545</v>
+        <v>0.1320786889189839</v>
       </c>
       <c r="C30">
-        <v>0.09543578150969081</v>
+        <v>0.06461648779561564</v>
       </c>
       <c r="D30">
-        <v>0.1132474371804321</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06860926487037175</v>
+      </c>
+      <c r="E30">
+        <v>-0.08343794693177496</v>
+      </c>
+      <c r="F30">
+        <v>0.02101476287921672</v>
+      </c>
+      <c r="G30">
+        <v>0.07758574923672101</v>
+      </c>
+      <c r="H30">
+        <v>-0.04094769317510372</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0421149852267179</v>
+        <v>0.04852405035582587</v>
       </c>
       <c r="C31">
-        <v>0.0228921685445876</v>
+        <v>0.01494656840002217</v>
       </c>
       <c r="D31">
-        <v>0.02782480838079739</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02724574315661391</v>
+      </c>
+      <c r="E31">
+        <v>-0.02843144354392324</v>
+      </c>
+      <c r="F31">
+        <v>-0.009535977623900658</v>
+      </c>
+      <c r="G31">
+        <v>-0.03055922321019789</v>
+      </c>
+      <c r="H31">
+        <v>0.06325517056443805</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.0377380028879336</v>
+        <v>0.03920899032551255</v>
       </c>
       <c r="C32">
-        <v>0.02508419046209594</v>
+        <v>0.01819580867467134</v>
       </c>
       <c r="D32">
-        <v>0.02699651860612065</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01340341288312452</v>
+      </c>
+      <c r="E32">
+        <v>-0.07012006183740996</v>
+      </c>
+      <c r="F32">
+        <v>0.0186221251991484</v>
+      </c>
+      <c r="G32">
+        <v>0.02257337893260161</v>
+      </c>
+      <c r="H32">
+        <v>0.06878205812781561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08190356108199676</v>
+        <v>0.09500686146033599</v>
       </c>
       <c r="C33">
-        <v>0.04412167848228478</v>
+        <v>0.02697366509880446</v>
       </c>
       <c r="D33">
-        <v>0.06487656754844924</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04854894277054619</v>
+      </c>
+      <c r="E33">
+        <v>-0.01508679498864287</v>
+      </c>
+      <c r="F33">
+        <v>-0.003617940544741497</v>
+      </c>
+      <c r="G33">
+        <v>-0.008522812830772192</v>
+      </c>
+      <c r="H33">
+        <v>0.05775173651613007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.0560070395701892</v>
+        <v>0.06205685337898592</v>
       </c>
       <c r="C34">
-        <v>0.02876625319207732</v>
+        <v>0.01405444175304637</v>
       </c>
       <c r="D34">
-        <v>0.05580869849333527</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05422717009973221</v>
+      </c>
+      <c r="E34">
+        <v>-0.008891680987052378</v>
+      </c>
+      <c r="F34">
+        <v>-0.01814389101121401</v>
+      </c>
+      <c r="G34">
+        <v>-0.0003056447035711952</v>
+      </c>
+      <c r="H34">
+        <v>0.05706901400946389</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03672661191648306</v>
+        <v>0.03956592142733215</v>
       </c>
       <c r="C35">
-        <v>0.009047984155721916</v>
+        <v>0.003820215483312056</v>
       </c>
       <c r="D35">
-        <v>0.007532958715437651</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.00835823048136867</v>
+      </c>
+      <c r="E35">
+        <v>-0.01965355414549684</v>
+      </c>
+      <c r="F35">
+        <v>0.0168887379844421</v>
+      </c>
+      <c r="G35">
+        <v>-0.01367005232273752</v>
+      </c>
+      <c r="H35">
+        <v>0.01851360813087474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02111530560976489</v>
+        <v>0.02790061855518348</v>
       </c>
       <c r="C36">
-        <v>0.01742599657218291</v>
+        <v>0.01369856367102601</v>
       </c>
       <c r="D36">
-        <v>0.02151117632815527</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01543657058892759</v>
+      </c>
+      <c r="E36">
+        <v>-0.04380556576915678</v>
+      </c>
+      <c r="F36">
+        <v>-0.01332436575782819</v>
+      </c>
+      <c r="G36">
+        <v>-0.01061807980557248</v>
+      </c>
+      <c r="H36">
+        <v>0.04486033896308673</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.03828753477290389</v>
+        <v>0.04381727662135439</v>
       </c>
       <c r="C38">
-        <v>0.003349548366184507</v>
+        <v>-0.0009619563329544008</v>
       </c>
       <c r="D38">
-        <v>0.01875079574602415</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01699029881129273</v>
+      </c>
+      <c r="E38">
+        <v>-0.05283453025456381</v>
+      </c>
+      <c r="F38">
+        <v>0.01306764172328737</v>
+      </c>
+      <c r="G38">
+        <v>0.006018515118206647</v>
+      </c>
+      <c r="H38">
+        <v>0.03507590514062251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09125945295371335</v>
+        <v>0.1029146706489111</v>
       </c>
       <c r="C39">
-        <v>0.07448174752104166</v>
+        <v>0.05216356668684312</v>
       </c>
       <c r="D39">
-        <v>0.05660664333381747</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05980103175466821</v>
+      </c>
+      <c r="E39">
+        <v>0.001091372124416339</v>
+      </c>
+      <c r="F39">
+        <v>-0.003372412601342253</v>
+      </c>
+      <c r="G39">
+        <v>0.02976959131782914</v>
+      </c>
+      <c r="H39">
+        <v>0.04833312804413314</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07458878732237161</v>
+        <v>0.07165265488915498</v>
       </c>
       <c r="C40">
-        <v>0.04165225123679081</v>
+        <v>0.02024894479288416</v>
       </c>
       <c r="D40">
-        <v>-0.004350974521144719</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01185711362640578</v>
+      </c>
+      <c r="E40">
+        <v>-0.02186116847718919</v>
+      </c>
+      <c r="F40">
+        <v>0.05569125281181633</v>
+      </c>
+      <c r="G40">
+        <v>0.05612466983746526</v>
+      </c>
+      <c r="H40">
+        <v>-0.1020582556486072</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04065964575023353</v>
+        <v>0.04319295763062117</v>
       </c>
       <c r="C41">
-        <v>0.005912177547000412</v>
+        <v>-0.002056686649545693</v>
       </c>
       <c r="D41">
-        <v>0.03846487193884004</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03518675867707666</v>
+      </c>
+      <c r="E41">
+        <v>-0.005628248059942532</v>
+      </c>
+      <c r="F41">
+        <v>0.01618715397933385</v>
+      </c>
+      <c r="G41">
+        <v>0.008405795283253258</v>
+      </c>
+      <c r="H41">
+        <v>0.03426588034696646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04689351116019173</v>
+        <v>0.05729975519762565</v>
       </c>
       <c r="C43">
-        <v>0.02605750516744294</v>
+        <v>0.01768508548078279</v>
       </c>
       <c r="D43">
-        <v>0.01918450329108721</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02615269796074835</v>
+      </c>
+      <c r="E43">
+        <v>-0.02013237098467557</v>
+      </c>
+      <c r="F43">
+        <v>-0.01024651488946831</v>
+      </c>
+      <c r="G43">
+        <v>-0.02073288150344939</v>
+      </c>
+      <c r="H43">
+        <v>0.0522361662661041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09280476824783518</v>
+        <v>0.09567287970990303</v>
       </c>
       <c r="C44">
-        <v>0.09310835922745896</v>
+        <v>0.06554183923809423</v>
       </c>
       <c r="D44">
-        <v>0.08192283742692991</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0593772130041039</v>
+      </c>
+      <c r="E44">
+        <v>-0.09129887781711142</v>
+      </c>
+      <c r="F44">
+        <v>-0.04082487262787517</v>
+      </c>
+      <c r="G44">
+        <v>0.02938012263344957</v>
+      </c>
+      <c r="H44">
+        <v>0.02030975479506298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.0245396597682914</v>
+        <v>0.03299757588473762</v>
       </c>
       <c r="C46">
-        <v>0.01439183223255922</v>
+        <v>0.01140946796574904</v>
       </c>
       <c r="D46">
-        <v>0.02043739562850632</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03305331771295918</v>
+      </c>
+      <c r="E46">
+        <v>-0.02970028830823122</v>
+      </c>
+      <c r="F46">
+        <v>-0.01454533197117079</v>
+      </c>
+      <c r="G46">
+        <v>-0.00457359253576697</v>
+      </c>
+      <c r="H46">
+        <v>0.03805997771163577</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03023980140118318</v>
+        <v>0.03824316700694925</v>
       </c>
       <c r="C47">
-        <v>0.02487263089181777</v>
+        <v>0.02049161495078478</v>
       </c>
       <c r="D47">
-        <v>0.01087336485939524</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.009422424165980168</v>
+      </c>
+      <c r="E47">
+        <v>-0.05068775194335434</v>
+      </c>
+      <c r="F47">
+        <v>-0.008010755144466346</v>
+      </c>
+      <c r="G47">
+        <v>-0.04361491952338476</v>
+      </c>
+      <c r="H47">
+        <v>0.02354662961499256</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03135265148453503</v>
+        <v>0.03711477829790773</v>
       </c>
       <c r="C48">
-        <v>0.01777137365760476</v>
+        <v>0.01165001384177808</v>
       </c>
       <c r="D48">
-        <v>0.03071128955810227</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01882987625973177</v>
+      </c>
+      <c r="E48">
+        <v>-0.0436548846055608</v>
+      </c>
+      <c r="F48">
+        <v>-0.00203279487027447</v>
+      </c>
+      <c r="G48">
+        <v>0.01063511281228786</v>
+      </c>
+      <c r="H48">
+        <v>0.04148609853711877</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.162811204372972</v>
+        <v>0.1903508385201862</v>
       </c>
       <c r="C49">
-        <v>0.0629939666527112</v>
+        <v>0.03644429704660064</v>
       </c>
       <c r="D49">
-        <v>-0.01816184940856081</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02740542378893016</v>
+      </c>
+      <c r="E49">
+        <v>0.1510695292980318</v>
+      </c>
+      <c r="F49">
+        <v>-0.07758722340620774</v>
+      </c>
+      <c r="G49">
+        <v>-0.04715616562912549</v>
+      </c>
+      <c r="H49">
+        <v>-0.2382944186044975</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03894867250139639</v>
+        <v>0.04589810029392001</v>
       </c>
       <c r="C50">
-        <v>0.02634983493650905</v>
+        <v>0.01897278654889429</v>
       </c>
       <c r="D50">
-        <v>0.03707014735547366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03064860764749497</v>
+      </c>
+      <c r="E50">
+        <v>-0.05100926230594025</v>
+      </c>
+      <c r="F50">
+        <v>-0.01128557566626649</v>
+      </c>
+      <c r="G50">
+        <v>-0.02475876428070007</v>
+      </c>
+      <c r="H50">
+        <v>0.06121279810217961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02517686869723778</v>
+        <v>0.02967727469473669</v>
       </c>
       <c r="C51">
-        <v>0.008193645827859086</v>
+        <v>0.004111117184525308</v>
       </c>
       <c r="D51">
-        <v>0.01625739173867206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01297228817705831</v>
+      </c>
+      <c r="E51">
+        <v>-0.01188203552304001</v>
+      </c>
+      <c r="F51">
+        <v>-0.0189515209315836</v>
+      </c>
+      <c r="G51">
+        <v>-0.0006870444542714392</v>
+      </c>
+      <c r="H51">
+        <v>-0.001468488711485534</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1519253465654505</v>
+        <v>0.1626090203024919</v>
       </c>
       <c r="C53">
-        <v>0.07989125972121597</v>
+        <v>0.05262797943009875</v>
       </c>
       <c r="D53">
-        <v>0.02522216310583134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01948427664866103</v>
+      </c>
+      <c r="E53">
+        <v>0.02723050772130647</v>
+      </c>
+      <c r="F53">
+        <v>-0.01804351316459191</v>
+      </c>
+      <c r="G53">
+        <v>-0.02656690572540334</v>
+      </c>
+      <c r="H53">
+        <v>0.175056926005741</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05456101688731059</v>
+        <v>0.0575053121176551</v>
       </c>
       <c r="C54">
-        <v>0.02638716154187144</v>
+        <v>0.01514413536194918</v>
       </c>
       <c r="D54">
-        <v>0.02300970689462662</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01725251617376758</v>
+      </c>
+      <c r="E54">
+        <v>-0.05139801988183678</v>
+      </c>
+      <c r="F54">
+        <v>-0.00538115578323669</v>
+      </c>
+      <c r="G54">
+        <v>0.01024259940802436</v>
+      </c>
+      <c r="H54">
+        <v>0.04867513774141694</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09916993041151907</v>
+        <v>0.103550156256847</v>
       </c>
       <c r="C55">
-        <v>0.05449549224358347</v>
+        <v>0.0344451609026559</v>
       </c>
       <c r="D55">
-        <v>0.02623798668823482</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02283048477188357</v>
+      </c>
+      <c r="E55">
+        <v>-0.01835266214230141</v>
+      </c>
+      <c r="F55">
+        <v>-0.01570996898241763</v>
+      </c>
+      <c r="G55">
+        <v>-0.01975244924807908</v>
+      </c>
+      <c r="H55">
+        <v>0.1501492709250697</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1479620243801769</v>
+        <v>0.1609029486180446</v>
       </c>
       <c r="C56">
-        <v>0.09155784531738623</v>
+        <v>0.06373379475497003</v>
       </c>
       <c r="D56">
-        <v>0.02067266431265974</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.01897821298811546</v>
+      </c>
+      <c r="E56">
+        <v>0.02535691220237914</v>
+      </c>
+      <c r="F56">
+        <v>-0.03730148830688422</v>
+      </c>
+      <c r="G56">
+        <v>-0.03764213290863416</v>
+      </c>
+      <c r="H56">
+        <v>0.1748690681766163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1269398771561471</v>
+        <v>0.09749682289464214</v>
       </c>
       <c r="C58">
-        <v>0.007896588780454076</v>
+        <v>-0.03648464627519973</v>
       </c>
       <c r="D58">
-        <v>0.02866162845932943</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04260624993783698</v>
+      </c>
+      <c r="E58">
+        <v>-0.170380206675843</v>
+      </c>
+      <c r="F58">
+        <v>0.01288973073490937</v>
+      </c>
+      <c r="G58">
+        <v>-0.02850519351982551</v>
+      </c>
+      <c r="H58">
+        <v>-0.2409355988676357</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1194819665776109</v>
+        <v>0.1369579810304304</v>
       </c>
       <c r="C59">
-        <v>0.07947253081976367</v>
+        <v>0.08729112168052257</v>
       </c>
       <c r="D59">
-        <v>-0.3526239633777998</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3634405981602939</v>
+      </c>
+      <c r="E59">
+        <v>-0.02480697052163564</v>
+      </c>
+      <c r="F59">
+        <v>-0.01934526942961138</v>
+      </c>
+      <c r="G59">
+        <v>-0.02457681657490019</v>
+      </c>
+      <c r="H59">
+        <v>-0.004561979503812362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2013047491279625</v>
+        <v>0.2318206810167104</v>
       </c>
       <c r="C60">
-        <v>0.1037749491508221</v>
+        <v>0.06811869344320037</v>
       </c>
       <c r="D60">
-        <v>0.007579669646703939</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03999800714551074</v>
+      </c>
+      <c r="E60">
+        <v>0.09544993227692203</v>
+      </c>
+      <c r="F60">
+        <v>-0.06549487547736942</v>
+      </c>
+      <c r="G60">
+        <v>0.02947932938790722</v>
+      </c>
+      <c r="H60">
+        <v>-0.1543915457425764</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0797745332903228</v>
+        <v>0.08899964286582449</v>
       </c>
       <c r="C61">
-        <v>0.05355190586075115</v>
+        <v>0.03813961705429222</v>
       </c>
       <c r="D61">
-        <v>0.04285673414781743</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04085470966431708</v>
+      </c>
+      <c r="E61">
+        <v>0.003418398256710301</v>
+      </c>
+      <c r="F61">
+        <v>-0.002699750196844888</v>
+      </c>
+      <c r="G61">
+        <v>-0.004214011839291433</v>
+      </c>
+      <c r="H61">
+        <v>0.06545112290558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1291634759100081</v>
+        <v>0.1397630360494491</v>
       </c>
       <c r="C62">
-        <v>0.06634018414309599</v>
+        <v>0.04121922941758308</v>
       </c>
       <c r="D62">
-        <v>0.03135601346413076</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03187598377052171</v>
+      </c>
+      <c r="E62">
+        <v>0.06109063804044457</v>
+      </c>
+      <c r="F62">
+        <v>-0.01552544559122544</v>
+      </c>
+      <c r="G62">
+        <v>0.004293757367624973</v>
+      </c>
+      <c r="H62">
+        <v>0.196085817993939</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05055086726551537</v>
+        <v>0.0501552363011176</v>
       </c>
       <c r="C63">
-        <v>0.02486187328884746</v>
+        <v>0.01282495280823777</v>
       </c>
       <c r="D63">
-        <v>0.02224602243189136</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02097582727453456</v>
+      </c>
+      <c r="E63">
+        <v>-0.05333731961173527</v>
+      </c>
+      <c r="F63">
+        <v>0.01309511564243502</v>
+      </c>
+      <c r="G63">
+        <v>0.02098308915512136</v>
+      </c>
+      <c r="H63">
+        <v>0.05693427079460726</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1046654540752263</v>
+        <v>0.1090922967164921</v>
       </c>
       <c r="C64">
-        <v>0.02447999415072448</v>
+        <v>0.004519557298491376</v>
       </c>
       <c r="D64">
-        <v>0.06048538834215389</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04085284410901562</v>
+      </c>
+      <c r="E64">
+        <v>-0.04672493403250236</v>
+      </c>
+      <c r="F64">
+        <v>-0.0438647537803409</v>
+      </c>
+      <c r="G64">
+        <v>0.04669522091347635</v>
+      </c>
+      <c r="H64">
+        <v>0.06276818618994726</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.1219962886742834</v>
+        <v>0.1262458297410302</v>
       </c>
       <c r="C65">
-        <v>0.06155898159228013</v>
+        <v>0.03881724121497331</v>
       </c>
       <c r="D65">
-        <v>-0.0181631781457465</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.004366098069746207</v>
+      </c>
+      <c r="E65">
+        <v>-0.01167427105309283</v>
+      </c>
+      <c r="F65">
+        <v>-0.05247526722109384</v>
+      </c>
+      <c r="G65">
+        <v>0.06308632290317963</v>
+      </c>
+      <c r="H65">
+        <v>-0.1409482182806929</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1433422586991386</v>
+        <v>0.1550165345783776</v>
       </c>
       <c r="C66">
-        <v>0.08027330920098288</v>
+        <v>0.04931361385166839</v>
       </c>
       <c r="D66">
-        <v>0.1100334310248295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09399962777637763</v>
+      </c>
+      <c r="E66">
+        <v>0.03214776974734236</v>
+      </c>
+      <c r="F66">
+        <v>-0.01720688913873963</v>
+      </c>
+      <c r="G66">
+        <v>0.04099597755747077</v>
+      </c>
+      <c r="H66">
+        <v>0.1230903192590663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07061045604128685</v>
+        <v>0.08331874535070576</v>
       </c>
       <c r="C67">
-        <v>0.01374169037247936</v>
+        <v>0.00542314914468431</v>
       </c>
       <c r="D67">
-        <v>0.0241601232020006</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03025023467231127</v>
+      </c>
+      <c r="E67">
+        <v>-0.02214270800805214</v>
+      </c>
+      <c r="F67">
+        <v>-0.01797649913522371</v>
+      </c>
+      <c r="G67">
+        <v>-0.01233732177069932</v>
+      </c>
+      <c r="H67">
+        <v>0.03752971221816576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05863683945821736</v>
+        <v>0.05758041252420867</v>
       </c>
       <c r="C68">
-        <v>0.05069345051750889</v>
+        <v>0.05876443864450496</v>
       </c>
       <c r="D68">
-        <v>-0.2526331176957152</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2690633565949489</v>
+      </c>
+      <c r="E68">
+        <v>-0.0364713438332898</v>
+      </c>
+      <c r="F68">
+        <v>-0.01560137956518245</v>
+      </c>
+      <c r="G68">
+        <v>-0.0147957676650136</v>
+      </c>
+      <c r="H68">
+        <v>0.002828876482706482</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05243867558264546</v>
+        <v>0.05337699541615485</v>
       </c>
       <c r="C69">
-        <v>0.01840938460432664</v>
+        <v>0.006141796414330992</v>
       </c>
       <c r="D69">
-        <v>0.01726012394427834</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01493502225670984</v>
+      </c>
+      <c r="E69">
+        <v>-0.02514471437904646</v>
+      </c>
+      <c r="F69">
+        <v>0.008722592228489194</v>
+      </c>
+      <c r="G69">
+        <v>-0.02222060314348796</v>
+      </c>
+      <c r="H69">
+        <v>0.04793751424323611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.004681842862054675</v>
+        <v>0.02694301488023618</v>
       </c>
       <c r="C70">
-        <v>-0.0063654901423301</v>
+        <v>-0.001245762145027969</v>
       </c>
       <c r="D70">
-        <v>-0.0003323766797635393</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005305482464766261</v>
+      </c>
+      <c r="E70">
+        <v>0.02357641048586695</v>
+      </c>
+      <c r="F70">
+        <v>-0.01915597534802041</v>
+      </c>
+      <c r="G70">
+        <v>-0.0227851350577202</v>
+      </c>
+      <c r="H70">
+        <v>-0.0322691629306661</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05899295773003055</v>
+        <v>0.06045616228747652</v>
       </c>
       <c r="C71">
-        <v>0.05119756122470657</v>
+        <v>0.06316732770780126</v>
       </c>
       <c r="D71">
-        <v>-0.294626867533229</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2952522808442018</v>
+      </c>
+      <c r="E71">
+        <v>-0.03197762263177423</v>
+      </c>
+      <c r="F71">
+        <v>-0.0431005601718222</v>
+      </c>
+      <c r="G71">
+        <v>-0.003961374249396069</v>
+      </c>
+      <c r="H71">
+        <v>0.008483598896138384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1378318465684858</v>
+        <v>0.145924819346026</v>
       </c>
       <c r="C72">
-        <v>0.06479997680007576</v>
+        <v>0.03630933061139063</v>
       </c>
       <c r="D72">
-        <v>-0.00274142801534328</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008290919081707409</v>
+      </c>
+      <c r="E72">
+        <v>0.1086517336012626</v>
+      </c>
+      <c r="F72">
+        <v>0.1586828258936885</v>
+      </c>
+      <c r="G72">
+        <v>0.1214530537359101</v>
+      </c>
+      <c r="H72">
+        <v>0.02167894363928928</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2737395587946316</v>
+        <v>0.2876356018109162</v>
       </c>
       <c r="C73">
-        <v>0.1133005168989259</v>
+        <v>0.0471275803669984</v>
       </c>
       <c r="D73">
-        <v>0.04465084479420219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0989985119516238</v>
+      </c>
+      <c r="E73">
+        <v>0.2151134943368177</v>
+      </c>
+      <c r="F73">
+        <v>-0.120923475973737</v>
+      </c>
+      <c r="G73">
+        <v>-0.1292373513820558</v>
+      </c>
+      <c r="H73">
+        <v>-0.494063888152022</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07978430210149143</v>
+        <v>0.09278692981889258</v>
       </c>
       <c r="C74">
-        <v>0.07780862614602373</v>
+        <v>0.0606601613413681</v>
       </c>
       <c r="D74">
-        <v>0.01427989558594756</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02893577267795354</v>
+      </c>
+      <c r="E74">
+        <v>0.005615984532493676</v>
+      </c>
+      <c r="F74">
+        <v>-0.0005639134037553448</v>
+      </c>
+      <c r="G74">
+        <v>-0.06093565344974184</v>
+      </c>
+      <c r="H74">
+        <v>0.1151920856784856</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09438121130914905</v>
+        <v>0.09964608398232962</v>
       </c>
       <c r="C75">
-        <v>0.05456661785770987</v>
+        <v>0.02953550934037293</v>
       </c>
       <c r="D75">
-        <v>0.008681009537780405</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01478016901579862</v>
+      </c>
+      <c r="E75">
+        <v>-0.007336188774659008</v>
+      </c>
+      <c r="F75">
+        <v>-0.02604553137245787</v>
+      </c>
+      <c r="G75">
+        <v>-0.02769738944667608</v>
+      </c>
+      <c r="H75">
+        <v>0.1147715480399088</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1311629350351813</v>
+        <v>0.1409660055344646</v>
       </c>
       <c r="C76">
-        <v>0.08514387456839242</v>
+        <v>0.05787300771427865</v>
       </c>
       <c r="D76">
-        <v>0.05399734626247282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05093106945024311</v>
+      </c>
+      <c r="E76">
+        <v>-0.02716298039869965</v>
+      </c>
+      <c r="F76">
+        <v>-0.0458666723539279</v>
+      </c>
+      <c r="G76">
+        <v>-0.02482965969278775</v>
+      </c>
+      <c r="H76">
+        <v>0.1984752407870841</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1120789422355896</v>
+        <v>0.1073906439177321</v>
       </c>
       <c r="C77">
-        <v>0.01976185770660788</v>
+        <v>-0.008560080442060363</v>
       </c>
       <c r="D77">
-        <v>0.05192930210922648</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01997945339146748</v>
+      </c>
+      <c r="E77">
+        <v>-0.0364085202224208</v>
+      </c>
+      <c r="F77">
+        <v>-0.107840158186597</v>
+      </c>
+      <c r="G77">
+        <v>0.8941716289342012</v>
+      </c>
+      <c r="H77">
+        <v>-0.06386848653295586</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09925184589473342</v>
+        <v>0.1390417923316181</v>
       </c>
       <c r="C78">
-        <v>0.04082449269801575</v>
+        <v>0.034025492797592</v>
       </c>
       <c r="D78">
-        <v>0.08332491688701468</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08403826093603078</v>
+      </c>
+      <c r="E78">
+        <v>-0.0554685311800388</v>
+      </c>
+      <c r="F78">
+        <v>-0.03881506703679617</v>
+      </c>
+      <c r="G78">
+        <v>0.0898746380630729</v>
+      </c>
+      <c r="H78">
+        <v>-0.04645293728650762</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1466383993685999</v>
+        <v>0.151537875269357</v>
       </c>
       <c r="C79">
-        <v>0.07684291132965061</v>
+        <v>0.04377954228112384</v>
       </c>
       <c r="D79">
-        <v>0.02984543969189882</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02789605039509474</v>
+      </c>
+      <c r="E79">
+        <v>0.01193176074103885</v>
+      </c>
+      <c r="F79">
+        <v>-0.01949477933111693</v>
+      </c>
+      <c r="G79">
+        <v>-0.04353949677411739</v>
+      </c>
+      <c r="H79">
+        <v>0.1724968571772825</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04570065205816605</v>
+        <v>0.04331272675252489</v>
       </c>
       <c r="C80">
-        <v>0.01546323196011727</v>
+        <v>0.005577120894357407</v>
       </c>
       <c r="D80">
-        <v>0.028786647690134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01842460789110381</v>
+      </c>
+      <c r="E80">
+        <v>0.008875018390045619</v>
+      </c>
+      <c r="F80">
+        <v>0.005318165313319792</v>
+      </c>
+      <c r="G80">
+        <v>-0.03568602762449381</v>
+      </c>
+      <c r="H80">
+        <v>0.0343147816210438</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1150494943707994</v>
+        <v>0.1203633642264783</v>
       </c>
       <c r="C81">
-        <v>0.06489447059704997</v>
+        <v>0.03879399867973245</v>
       </c>
       <c r="D81">
-        <v>0.03151470702929894</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02320128046668401</v>
+      </c>
+      <c r="E81">
+        <v>-0.02426962518190302</v>
+      </c>
+      <c r="F81">
+        <v>-0.01594324577415705</v>
+      </c>
+      <c r="G81">
+        <v>-0.06547837814374566</v>
+      </c>
+      <c r="H81">
+        <v>0.1474742888273115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1313643460294918</v>
+        <v>0.1321264229317755</v>
       </c>
       <c r="C82">
-        <v>0.08099670652137757</v>
+        <v>0.05180834078372363</v>
       </c>
       <c r="D82">
-        <v>0.01745736321266052</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02679906806624252</v>
+      </c>
+      <c r="E82">
+        <v>0.01490856892161195</v>
+      </c>
+      <c r="F82">
+        <v>-0.05724597809659305</v>
+      </c>
+      <c r="G82">
+        <v>-0.0594230104856614</v>
+      </c>
+      <c r="H82">
+        <v>0.2102516558894525</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07695799836632027</v>
+        <v>0.08777022520340275</v>
       </c>
       <c r="C83">
-        <v>-0.008794529334451479</v>
+        <v>-0.02356391635309007</v>
       </c>
       <c r="D83">
-        <v>0.02553605636723895</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03209994923676202</v>
+      </c>
+      <c r="E83">
+        <v>-0.02371738832125441</v>
+      </c>
+      <c r="F83">
+        <v>-0.05122805382631306</v>
+      </c>
+      <c r="G83">
+        <v>-0.07986044492638712</v>
+      </c>
+      <c r="H83">
+        <v>-0.05746184977274701</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02656639266741428</v>
+        <v>0.03630142805758625</v>
       </c>
       <c r="C84">
-        <v>0.02698631020135217</v>
+        <v>0.02207768653043896</v>
       </c>
       <c r="D84">
-        <v>0.03203752152284284</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03192128354889711</v>
+      </c>
+      <c r="E84">
+        <v>-0.02402689750708382</v>
+      </c>
+      <c r="F84">
+        <v>0.04962278165663463</v>
+      </c>
+      <c r="G84">
+        <v>-0.06148794763355136</v>
+      </c>
+      <c r="H84">
+        <v>-0.003381784381764833</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1204040778358165</v>
+        <v>0.1207600210183641</v>
       </c>
       <c r="C85">
-        <v>0.05795143497499901</v>
+        <v>0.02913218346593941</v>
       </c>
       <c r="D85">
-        <v>0.01913078610185192</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02247404609546152</v>
+      </c>
+      <c r="E85">
+        <v>-0.02412069803185448</v>
+      </c>
+      <c r="F85">
+        <v>-0.04112028782074274</v>
+      </c>
+      <c r="G85">
+        <v>-0.03490773881463571</v>
+      </c>
+      <c r="H85">
+        <v>0.1501026385238249</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.0506979118684294</v>
+        <v>0.05818796172669998</v>
       </c>
       <c r="C86">
-        <v>0.03141427004268579</v>
+        <v>0.01996790646293877</v>
       </c>
       <c r="D86">
-        <v>0.02174979675410734</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02492262417187071</v>
+      </c>
+      <c r="E86">
+        <v>-0.06640455520415306</v>
+      </c>
+      <c r="F86">
+        <v>-0.02659740498722481</v>
+      </c>
+      <c r="G86">
+        <v>-0.02345484089582207</v>
+      </c>
+      <c r="H86">
+        <v>-0.01351754894807785</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1185256334992516</v>
+        <v>0.122242514302064</v>
       </c>
       <c r="C87">
-        <v>0.0727261569704554</v>
+        <v>0.03891480324716112</v>
       </c>
       <c r="D87">
-        <v>0.07271391245139786</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07054425898008296</v>
+      </c>
+      <c r="E87">
+        <v>-0.02527572371342959</v>
+      </c>
+      <c r="F87">
+        <v>0.0007709550757685401</v>
+      </c>
+      <c r="G87">
+        <v>0.1293147540308613</v>
+      </c>
+      <c r="H87">
+        <v>-0.03752609071933653</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05306557964408207</v>
+        <v>0.060277993517188</v>
       </c>
       <c r="C88">
-        <v>0.02926593683616528</v>
+        <v>0.01854061836143227</v>
       </c>
       <c r="D88">
-        <v>0.01982670983789038</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03332629038207874</v>
+      </c>
+      <c r="E88">
+        <v>-0.02146301798122565</v>
+      </c>
+      <c r="F88">
+        <v>-0.00586444279373398</v>
+      </c>
+      <c r="G88">
+        <v>0.00358789673320102</v>
+      </c>
+      <c r="H88">
+        <v>0.05456494601548879</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08377746703311163</v>
+        <v>0.09366888014032221</v>
       </c>
       <c r="C89">
-        <v>0.06929617740058744</v>
+        <v>0.0818523110633655</v>
       </c>
       <c r="D89">
-        <v>-0.3271844358589859</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3480928016848807</v>
+      </c>
+      <c r="E89">
+        <v>-0.0694646185539429</v>
+      </c>
+      <c r="F89">
+        <v>-0.08315754724151896</v>
+      </c>
+      <c r="G89">
+        <v>-0.02549610391202978</v>
+      </c>
+      <c r="H89">
+        <v>0.01159913634915289</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07460786299346542</v>
+        <v>0.07941787335722181</v>
       </c>
       <c r="C90">
-        <v>0.06111855915269704</v>
+        <v>0.06955223618983765</v>
       </c>
       <c r="D90">
-        <v>-0.3220003890916851</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.3071616793373506</v>
+      </c>
+      <c r="E90">
+        <v>-0.06134802407390258</v>
+      </c>
+      <c r="F90">
+        <v>0.0007165445175724687</v>
+      </c>
+      <c r="G90">
+        <v>-0.004082100090877333</v>
+      </c>
+      <c r="H90">
+        <v>0.004729333284987629</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08610786248152061</v>
+        <v>0.08972184047180663</v>
       </c>
       <c r="C91">
-        <v>0.05664922504481516</v>
+        <v>0.03431755489493699</v>
       </c>
       <c r="D91">
-        <v>0.03328292266006111</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03162450443590459</v>
+      </c>
+      <c r="E91">
+        <v>-0.01459092903193813</v>
+      </c>
+      <c r="F91">
+        <v>-0.006700178836200949</v>
+      </c>
+      <c r="G91">
+        <v>-0.05413407945622525</v>
+      </c>
+      <c r="H91">
+        <v>0.07563841206786978</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07484013876713275</v>
+        <v>0.07867978630130228</v>
       </c>
       <c r="C92">
-        <v>0.07225108882157324</v>
+        <v>0.08268509287421874</v>
       </c>
       <c r="D92">
-        <v>-0.3425500509360989</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3446085967599921</v>
+      </c>
+      <c r="E92">
+        <v>-0.04526629665754973</v>
+      </c>
+      <c r="F92">
+        <v>-0.03965839004683523</v>
+      </c>
+      <c r="G92">
+        <v>0.01004264201855346</v>
+      </c>
+      <c r="H92">
+        <v>0.01495517060201345</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06526565582462542</v>
+        <v>0.07619719740029569</v>
       </c>
       <c r="C93">
-        <v>0.06561572212927901</v>
+        <v>0.08053558530161485</v>
       </c>
       <c r="D93">
-        <v>-0.3139390734894169</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3046516610716529</v>
+      </c>
+      <c r="E93">
+        <v>-0.03746030951221149</v>
+      </c>
+      <c r="F93">
+        <v>-0.03799898771874835</v>
+      </c>
+      <c r="G93">
+        <v>0.01598238520939376</v>
+      </c>
+      <c r="H93">
+        <v>-0.01021989080990316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1318549518843255</v>
+        <v>0.1263685950943165</v>
       </c>
       <c r="C94">
-        <v>0.05655091396225209</v>
+        <v>0.02161034118852295</v>
       </c>
       <c r="D94">
-        <v>0.04689510765876586</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0486955755693154</v>
+      </c>
+      <c r="E94">
+        <v>0.00401587784025532</v>
+      </c>
+      <c r="F94">
+        <v>-0.02128613811022268</v>
+      </c>
+      <c r="G94">
+        <v>-0.06334047096693407</v>
+      </c>
+      <c r="H94">
+        <v>0.09376725388073276</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1201591501609033</v>
+        <v>0.1267642293259793</v>
       </c>
       <c r="C95">
-        <v>0.03221694319174816</v>
+        <v>0.003566302295755799</v>
       </c>
       <c r="D95">
-        <v>0.06054247671239256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07109621982616805</v>
+      </c>
+      <c r="E95">
+        <v>-0.01461672903305462</v>
+      </c>
+      <c r="F95">
+        <v>-0.04150577382410164</v>
+      </c>
+      <c r="G95">
+        <v>0.02696948399416019</v>
+      </c>
+      <c r="H95">
+        <v>-0.05837356525819385</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2115572741464552</v>
+        <v>0.2097907077892596</v>
       </c>
       <c r="C97">
-        <v>0.0467628823471688</v>
+        <v>0.002329464178845505</v>
       </c>
       <c r="D97">
-        <v>-0.0910127706703187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08765281503741428</v>
+      </c>
+      <c r="E97">
+        <v>0.29408843226475</v>
+      </c>
+      <c r="F97">
+        <v>0.8760052514006275</v>
+      </c>
+      <c r="G97">
+        <v>0.07122455698882561</v>
+      </c>
+      <c r="H97">
+        <v>0.0147017406274909</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2439130237949882</v>
+        <v>0.2753373749330869</v>
       </c>
       <c r="C98">
-        <v>0.07489154533475897</v>
+        <v>0.03403183770553671</v>
       </c>
       <c r="D98">
-        <v>0.0487388450262816</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05875243191593284</v>
+      </c>
+      <c r="E98">
+        <v>0.1765228707604146</v>
+      </c>
+      <c r="F98">
+        <v>-0.08444693942937107</v>
+      </c>
+      <c r="G98">
+        <v>-0.2247770509089219</v>
+      </c>
+      <c r="H98">
+        <v>-0.2409979519483494</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.4544054116924903</v>
+        <v>0.2862474417826187</v>
       </c>
       <c r="C99">
-        <v>-0.87453153743845</v>
+        <v>-0.9333459441086298</v>
       </c>
       <c r="D99">
-        <v>-0.05226431329543083</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1349313242528342</v>
+      </c>
+      <c r="E99">
+        <v>-0.06579268377929041</v>
+      </c>
+      <c r="F99">
+        <v>-0.04855116321814288</v>
+      </c>
+      <c r="G99">
+        <v>-0.02396433278976463</v>
+      </c>
+      <c r="H99">
+        <v>0.06450982539532966</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.03946394494195344</v>
+        <v>0.04784942667581665</v>
       </c>
       <c r="C101">
-        <v>0.03108804618054846</v>
+        <v>0.02612106217128659</v>
       </c>
       <c r="D101">
-        <v>0.004071148388872867</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007128313301796232</v>
+      </c>
+      <c r="E101">
+        <v>-0.05489545314162121</v>
+      </c>
+      <c r="F101">
+        <v>-0.0009119437442842872</v>
+      </c>
+      <c r="G101">
+        <v>-0.01271683110780993</v>
+      </c>
+      <c r="H101">
+        <v>0.07797561499146624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
